--- a/Calculateur_probabilites.xlsx
+++ b/Calculateur_probabilites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myria\Documents\super-cossin-lette-3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{085A364E-D522-4386-B0E0-2F41D2AAE7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B5BDA1-B4AB-49A6-AF45-363F7F301EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="0" windowWidth="16224" windowHeight="11016" xr2:uid="{BB6FD55A-0A83-47C6-9A12-C7D6A356FA18}"/>
+    <workbookView xWindow="96" yWindow="0" windowWidth="16224" windowHeight="10920" xr2:uid="{BB6FD55A-0A83-47C6-9A12-C7D6A356FA18}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Table des probabilités:</t>
   </si>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -91,7 +91,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0F8D70-2EE9-4077-B1F2-9EA2F51FB3DD}">
-  <dimension ref="B5:D14"/>
+  <dimension ref="B5:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,6 +502,26 @@
         <v>0.125</v>
       </c>
     </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <f>(1-D16)/C17</f>
+        <v>0.10000000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
